--- a/data/hotels_by_city/Dallas/Dallas_shard_246.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_246.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Melissa R</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>justatrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r582410430-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Great new accommodation in Waxahachie. I have stayed here twice since the hotel opened and will return. The staff is friendly and helpful, breakfast was good with a wide variety of hot and cold choices. I did appreciate the non-fat Greek yogurt.  The bed was very comfortable and had a good wifi signal   The ability to watch streaming TV is great.More</t>
   </si>
   <si>
+    <t>Annemarie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r579417563-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>This hotel was perfectly located for the race. It took about 40 minutes from either DFW or DAL airports driving. The offer a decent breakfast buffet which makes the start to the day perfect for the runner. Very hospitable. Rooms were updated and great! Will be back next year!More</t>
   </si>
   <si>
+    <t>R2Ro581</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r573591410-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>My stay was amazing! Rooms were clean and cleaned daily, full bf was great, and the staff were super caring and helpful! I recommend staying here to any of my friends and family! I am planning on returning soon!More</t>
   </si>
   <si>
+    <t>Mark A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r567841531-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>Yes the rooms are nice.... no restaurant, no bar. The large bin gets emptied at 04:30 in the morning. How disrespectful to the guests. We had a 5 hour drive starting at 07:00 after driving 5 hours the day before and the early wake up didn’t go down well.More</t>
   </si>
   <si>
+    <t>everview1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r558877804-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>The hotel has a vibrant modern decor, which is very pleasant.  We experienced nothing but friendly and efficient service by the staff. The breakfast offered a good variety, including the ability to make fresh waffles.  We would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>Johnny T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r543694281-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>Super New and Nice Hotel and it appears that the staff works hard to keep it that way.  Very clean and bright. The exterior lighting make you feel safe. The interior decor is bright and uplifting. Gym area, Pool, very good breakfast is included. The rooms are comfortable, quiet, and had plenty of space and storage. A little trick to find the entrance but conveniently located just away from the traffic but with easy access to many restaurants, shopping, entertainment.  Close to SAGU and football stadium. I will make the extra effort to stay here every time I am in Waxahachie.More</t>
   </si>
   <si>
+    <t>Jodie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r541634335-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>This is one of the newer Fairfields, open concept, clean breakfast area, great assortment of food and drinks, family friendly, spacious room, clean bathrooms, plenty of towels, interesting wall treatment behind beds, and comfy bed.More</t>
   </si>
   <si>
+    <t>Randall h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r531843899-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>Rooms were very nice.Bed were very comfortable. Suites have 2 flat screen TV.  Breakfast was very nice and fresh . I definitely will stay here again. Staff was very helpful. Easy access to the highway. Overall very pleased with my stay.More</t>
   </si>
   <si>
+    <t>katherinekelli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r531424503-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -397,6 +427,9 @@
   </si>
   <si>
     <t>Everything went very smoothly on this stay. We had to change rooms after our first night (needed a second bed to accommodate a new arrival) and the transition was easy and quick. The room was ready well before the standard check in time, so there was no gap between being able to leave one room and enter the other. Everyone we spoke to at the front desk was friendly and helpful. The only small issue we had was the shower was a bit tricky in our first room, hard to figure out hot/cold and had to be just in the right spot to get hot water. In the second room, it worked perfectly.More</t>
+  </si>
+  <si>
+    <t>lizbyrd0324</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r527925321-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
@@ -421,6 +454,9 @@
 Go up to my room and it smells over perfumed by room freshener. I get over to the sheets and they have hair strands on them and look quite wrinkled. I pull the sheets back and I'm instantly engulfed by the smell of sweat. Like same status as I just worked out for an hour and then got into bed dripping wet. It's NASTY. I call back down and ask to be switched. She tells me she is swamped and that the hotel is booked and she can't do anything for me. I told her there is no way these sheets were changed. She agrees that might be the case "but policy states they should be clean." I said regardless of policy no one changed these sheets. She brings me...Stay away from this property. The front desk staff is rude, unhelpful and below average in all aspects. During check in the girl who checked me in said "one moment I'm finishing something" and goes on to take 3-4 minutes before addressing me. I think it is very rude to let the customer stand for that amount of time. I purchased a bottled soda 30 min later and asked for the bottle opener. Another woman with short dark hair and glasses very snarkily said "that is definitely a twist off" and laughs that I'm the idiot. I try again and it's indeed NOT a twist off. Hurt my hand trying. Go up to my room and it smells over perfumed by room freshener. I get over to the sheets and they have hair strands on them and look quite wrinkled. I pull the sheets back and I'm instantly engulfed by the smell of sweat. Like same status as I just worked out for an hour and then got into bed dripping wet. It's NASTY. I call back down and ask to be switched. She tells me she is swamped and that the hotel is booked and she can't do anything for me. I told her there is no way these sheets were changed. She agrees that might be the case "but policy states they should be clean." I said regardless of policy no one changed these sheets. She brings me up folded sheets. I'm like are you expecting that I change the bed? Where is house keeping? She said no one is here except for me so if you want clean sheets you'll have to do it yourself. Is this what I should expect from Marriott? I am Diamond with Hilton for a reason, I suppose. I'm currently working on an elite challenge with Marriott but I'm thinking based on the rooms I've seen during my challenge that I have zero reason to rule out my beloved Hilton. Marriott sounded sorry about the experience but only made it up to me with 10,000 points. Seems a bit low for the night I had at this property. Such a bummer! More</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r526345567-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -439,6 +475,9 @@
     <t>It all goes back to guest etiquette I really can't figure out why people act a fool when they stay at a hotel and stomp around on Floors yell scream and carry on like idiots which the hotel staff had a really hard time getting ahold of up until the police showed up This truly is a beautiful hotel and clean breakfast was beautiful staff was very pleasant and I will probably stay there again at some point but after having no sleep from 12:30 on and had to be at work at 7 a.m. it made for a very rough stay. More</t>
   </si>
   <si>
+    <t>58Michele59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r503509251-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -460,6 +499,9 @@
     <t>This hotel has only been open a week. Check in staff and ladies in breakfast area very friendly &amp;  treated us like they were glad we were there. Modern &amp; clean. Comfortable bed. Visit Waxahachie often &amp; this will be our new go to hotel.More</t>
   </si>
   <si>
+    <t>denniscali59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r502654985-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -476,6 +518,9 @@
   </si>
   <si>
     <t>Everything about staying at this hotel was positive. Easy check-in. Friendly staff. Spic-n-span clean. Brand new. Spacious. Bright colors. Ample breakfast. Everything you could want in a hotel at a very reasonable price!More</t>
+  </si>
+  <si>
+    <t>Ajones911</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r499788344-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
@@ -998,43 +1043,47 @@
       <c r="A2" t="n">
         <v>65342</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>14877</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1052,50 +1101,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65342</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136884</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1111,56 +1164,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65342</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>50468</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1172,56 +1229,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65342</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136885</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1233,56 +1294,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65342</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>3949</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1294,56 +1359,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65342</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136886</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1355,56 +1424,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65342</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136887</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1422,56 +1495,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65342</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136888</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1487,56 +1564,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65342</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136889</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1552,56 +1633,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65342</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136890</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1619,56 +1704,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65342</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136891</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1680,56 +1769,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65342</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1741,56 +1834,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65342</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136892</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -1806,56 +1903,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65342</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136893</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1873,56 +1974,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65342</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136894</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1934,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_246.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_246.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,303 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Melissa R</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r601633987-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>56852</t>
+  </si>
+  <si>
+    <t>10199105</t>
+  </si>
+  <si>
+    <t>601633987</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Regular Business Use</t>
+  </si>
+  <si>
+    <t>I stay at this hotel often due to business. I also recommend it to all of my clients.   The staff is phenomenal.  They go out of their way to accommodate. The facility is always spotless and great pride is taken  in how things are run.  The location is new and well maintained and the staff is excellent.   Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r601632279-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>601632279</t>
+  </si>
+  <si>
+    <t>Superior Service, 5 stars all around</t>
+  </si>
+  <si>
+    <t>Everything was spectacular. From the fruit infused water and ridiculously amazing breakfast buffet to the warm cookies at night - - everything was just first class. Love the communal atmosphere in the lobby. Just brings guests together in a casual and relaxed setting. But the staff really make the stay unforgettable. Everyone was vested in my happiness and went above and beyond to create a memorable experience. Kudos to the GM, front guest staff, food and beverages and housekeeping team members.Way to go Barbara, Lisa, Savannah, Bailey, Heather and Dacla.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r600923262-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>600923262</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Relaxing and Friendly</t>
+  </si>
+  <si>
+    <t>I have been traveling to many Hotels as a Mover while on the road. Check in was simple  and easy Lisa was extremely professional and  I found the Woman Barbara pleasant and professional during breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r597494310-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>597494310</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Good hotel, Fantastic staff!</t>
+  </si>
+  <si>
+    <t>The staff at the Fairfield went beyond my expectations. I originally had a reservation with another hotel, but that hotel changed the accessible room I had reserved to share with my disabled mom to a standard room. Because she cannot walk and uses a wheelchair for mobility, my mom cannot stay in a regular room. Since we were driving almost 700 miles, I wanted to make sure that we had someplace to stay for the night. I called several hotels, trying to find one with an accessible room available.
+Fairfield had a room available so I reserved it, but when I got the confirmation email, it didn't state accessible. I called back and spoke to Meagan. She was phenomenal! She verified that even though the confirmation didn't state accessible, the hotel's reservation did. She sent me a screenshot of the reservation on her computer screen and also sent photos of the room to show it was accessible. 
+I was still a little concerned about getting bumped from our accessible room so I called the hotel a couple times during the day to let them know we were on our way and to verify we would have an accessible room. Both times I spoke with Josh who was very patient about my inquiries. When we arrived at the Fairfield, Josh was at the front desk to greet us. He made sure the room was fine.
+A couple minor things about the...The staff at the Fairfield went beyond my expectations. I originally had a reservation with another hotel, but that hotel changed the accessible room I had reserved to share with my disabled mom to a standard room. Because she cannot walk and uses a wheelchair for mobility, my mom cannot stay in a regular room. Since we were driving almost 700 miles, I wanted to make sure that we had someplace to stay for the night. I called several hotels, trying to find one with an accessible room available.Fairfield had a room available so I reserved it, but when I got the confirmation email, it didn't state accessible. I called back and spoke to Meagan. She was phenomenal! She verified that even though the confirmation didn't state accessible, the hotel's reservation did. She sent me a screenshot of the reservation on her computer screen and also sent photos of the room to show it was accessible. I was still a little concerned about getting bumped from our accessible room so I called the hotel a couple times during the day to let them know we were on our way and to verify we would have an accessible room. Both times I spoke with Josh who was very patient about my inquiries. When we arrived at the Fairfield, Josh was at the front desk to greet us. He made sure the room was fine.A couple minor things about the room (#123) - the shower drains into the bathroom so the floor got very wet when showering. Also, the AC unit is a bit noisy. Other than those two items, the room was great - clean and accessible.The hotel is a bit difficult to find, requiring a couple U-turns from 287. I missed a turn and had to backtrack. If I need to return though Waxahachie again, I would stay at Fairfield.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The staff at the Fairfield went beyond my expectations. I originally had a reservation with another hotel, but that hotel changed the accessible room I had reserved to share with my disabled mom to a standard room. Because she cannot walk and uses a wheelchair for mobility, my mom cannot stay in a regular room. Since we were driving almost 700 miles, I wanted to make sure that we had someplace to stay for the night. I called several hotels, trying to find one with an accessible room available.
+Fairfield had a room available so I reserved it, but when I got the confirmation email, it didn't state accessible. I called back and spoke to Meagan. She was phenomenal! She verified that even though the confirmation didn't state accessible, the hotel's reservation did. She sent me a screenshot of the reservation on her computer screen and also sent photos of the room to show it was accessible. 
+I was still a little concerned about getting bumped from our accessible room so I called the hotel a couple times during the day to let them know we were on our way and to verify we would have an accessible room. Both times I spoke with Josh who was very patient about my inquiries. When we arrived at the Fairfield, Josh was at the front desk to greet us. He made sure the room was fine.
+A couple minor things about the...The staff at the Fairfield went beyond my expectations. I originally had a reservation with another hotel, but that hotel changed the accessible room I had reserved to share with my disabled mom to a standard room. Because she cannot walk and uses a wheelchair for mobility, my mom cannot stay in a regular room. Since we were driving almost 700 miles, I wanted to make sure that we had someplace to stay for the night. I called several hotels, trying to find one with an accessible room available.Fairfield had a room available so I reserved it, but when I got the confirmation email, it didn't state accessible. I called back and spoke to Meagan. She was phenomenal! She verified that even though the confirmation didn't state accessible, the hotel's reservation did. She sent me a screenshot of the reservation on her computer screen and also sent photos of the room to show it was accessible. I was still a little concerned about getting bumped from our accessible room so I called the hotel a couple times during the day to let them know we were on our way and to verify we would have an accessible room. Both times I spoke with Josh who was very patient about my inquiries. When we arrived at the Fairfield, Josh was at the front desk to greet us. He made sure the room was fine.A couple minor things about the room (#123) - the shower drains into the bathroom so the floor got very wet when showering. Also, the AC unit is a bit noisy. Other than those two items, the room was great - clean and accessible.The hotel is a bit difficult to find, requiring a couple U-turns from 287. I missed a turn and had to backtrack. If I need to return though Waxahachie again, I would stay at Fairfield.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r596521344-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>596521344</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>A+ for sure. Service very professional. Room is perfect especially has great airconditoner in room much better than many hotels I've stayed. It's a must in this Texas heat. I usually go with Comfort Inn because I have a points card but took a chance. Glad I did.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r594643706-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>594643706</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>we knew we needed to stay somewhere around here on our way to Austin.  We called as we’ve gotten here and check to see if they had any openings. From the moment we spoke to the gentleman at the hotel, I had a really good feeling about this place. When we got there we were not disappointed. Our stay was perfect, the staff was phenomenal to say the least, the room was beautiful and clean and modern. The breakfast was delicious and the bed was comfortable.  I cannot think of anything the staff could have done to have made our stay better. We would definitely recommend this place to any of our family or friends. They will go above and beyond to assist you to have a fantastic stay.  We will be traveling to Austin more in the future and I can guarantee there will be no question as to where we stay on our way down. Thank you so much for a wonderful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>we knew we needed to stay somewhere around here on our way to Austin.  We called as we’ve gotten here and check to see if they had any openings. From the moment we spoke to the gentleman at the hotel, I had a really good feeling about this place. When we got there we were not disappointed. Our stay was perfect, the staff was phenomenal to say the least, the room was beautiful and clean and modern. The breakfast was delicious and the bed was comfortable.  I cannot think of anything the staff could have done to have made our stay better. We would definitely recommend this place to any of our family or friends. They will go above and beyond to assist you to have a fantastic stay.  We will be traveling to Austin more in the future and I can guarantee there will be no question as to where we stay on our way down. Thank you so much for a wonderful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r590357846-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>590357846</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Good Stay for the Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I stayed here, this hotel had just opened.  Everything was new and clean and the staff had been well trained.  I am not sure how that is today, but our stay was very pleasant.  The facilities were nice and it was close to the area where I was attending a conference.  The breakfast was well laid out and there was a lady there who was constantly cleaning, adding more food and keeping things well stocked.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r588194723-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>588194723</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Everything was great.</t>
+  </si>
+  <si>
+    <t>Room was Clean, Neat and Comfortable.  We were meeting another couple and spent time in the lobby visiting and enjoying the beautiful surroundings.  The service by everyone was good.  We'd go back when in that area again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Room was Clean, Neat and Comfortable.  We were meeting another couple and spent time in the lobby visiting and enjoying the beautiful surroundings.  The service by everyone was good.  We'd go back when in that area again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r587058711-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>587058711</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Visit Fantastic Service </t>
+  </si>
+  <si>
+    <t>The hotel is nice.  It is a standard Fairfield Inn property that is well kept.  The staff makes all the difference at this location.  Several times the staff went out of their way to provide an extra level of service.  At one point the manager offered to go out and buy a sparkling water they did not have n site.  That is a level of service I wouldn’t expect at a full service Marriott MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is nice.  It is a standard Fairfield Inn property that is well kept.  The staff makes all the difference at this location.  Several times the staff went out of their way to provide an extra level of service.  At one point the manager offered to go out and buy a sparkling water they did not have n site.  That is a level of service I wouldn’t expect at a full service Marriott More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r586521860-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>586521860</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>A+ Stay</t>
+  </si>
+  <si>
+    <t>Everything from check-in, room condition, ammenties, and location was great. Even the cleaning staff greeted us and welcome us in hallway! We stay for a baseball tournament, breakfast was available early and was allowed a late check out!!MoreShow less</t>
+  </si>
+  <si>
+    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Everything from check-in, room condition, ammenties, and location was great. Even the cleaning staff greeted us and welcome us in hallway! We stay for a baseball tournament, breakfast was available early and was allowed a late check out!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r586515960-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>586515960</t>
+  </si>
+  <si>
+    <t>Joshua Schreib Task Force General Manager Offers incredible personal service to customers.</t>
+  </si>
+  <si>
+    <t>Joshua was incredible in helping me to find my rewards #. He sent me a personal email to let me know the # and to know how to use the rewards program’s most recent promotion. The rest of the staff was very friendly and the room was exceptional. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joshua was incredible in helping me to find my rewards #. He sent me a personal email to let me know the # and to know how to use the rewards program’s most recent promotion. The rest of the staff was very friendly and the room was exceptional. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r586203690-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>586203690</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>We enjoyed a peaceful nights rest here in Waxahachie.  The room was clean with the usual aminities.  The place was full too as many were attending weekend weddings.The breakfast was adequate and we appreciated the strong coffee option.We would stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r585333385-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>585333385</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>The Positives:Clean, new, excellent breakfast, close to convention center of Waxahachie.The Negatives:I made reservations 2 month ago with specific request for a top floor room. When I checked in at 3:30 I was to a top floor room was not available...bummer. What's the use of making an advanced reservation. The young woman at the front desk did say she was sorry, but offered no other options  other than a room on a lower floor. Thirty minutes into the room we could hear the running and jumping of the children above us. The initial greeting of the young woman at check needs work. She was not rude, but  seemed indifferent, there was no smile or sense of gratitude or sincere appreciation we had chosen this hotel. Rather typical of what we see in  business too often, "I'm here, doing my job, wish I was somewhere else...who's next?"There are other similarly priced hotel options in Waxahachie, I thought I would try this hotel because it was new, but I'll go back to where we've always stayed when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>The Positives:Clean, new, excellent breakfast, close to convention center of Waxahachie.The Negatives:I made reservations 2 month ago with specific request for a top floor room. When I checked in at 3:30 I was to a top floor room was not available...bummer. What's the use of making an advanced reservation. The young woman at the front desk did say she was sorry, but offered no other options  other than a room on a lower floor. Thirty minutes into the room we could hear the running and jumping of the children above us. The initial greeting of the young woman at check needs work. She was not rude, but  seemed indifferent, there was no smile or sense of gratitude or sincere appreciation we had chosen this hotel. Rather typical of what we see in  business too often, "I'm here, doing my job, wish I was somewhere else...who's next?"There are other similarly priced hotel options in Waxahachie, I thought I would try this hotel because it was new, but I'll go back to where we've always stayed when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r584230847-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>584230847</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Perfection!</t>
+  </si>
+  <si>
+    <t>We had a great stay with a very welcoming front desk team Melissa/Josh were so generous and kind. The rooms were clean, the beds were amazing, and breakfast was delicious.I would highly recommended this hotel to my family and friends. Thank you for your southern hospitality!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great stay with a very welcoming front desk team Melissa/Josh were so generous and kind. The rooms were clean, the beds were amazing, and breakfast was delicious.I would highly recommended this hotel to my family and friends. Thank you for your southern hospitality!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r583456944-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
-    <t>56852</t>
-  </si>
-  <si>
-    <t>10199105</t>
-  </si>
-  <si>
     <t>583456944</t>
   </si>
   <si>
@@ -171,16 +453,16 @@
     <t>Clean,  comfortable,  convenient</t>
   </si>
   <si>
-    <t>The room was extremely clean and the bed was firm and comfortable.   The curtains blocked the light.   It is right off of 287 &amp; 35 and  easy to get to restaurants, stores or whatever you need.  The staff (Josh) was friendly, welcoming, and helpful.</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>justatrip</t>
+    <t>The room was extremely clean and the bed was firm and comfortable.   The curtains blocked the light.   It is right off of 287 &amp; 35 and  easy to get to restaurants, stores or whatever you need.  The staff (Josh) was friendly, welcoming, and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>The room was extremely clean and the bed was firm and comfortable.   The curtains blocked the light.   It is right off of 287 &amp; 35 and  easy to get to restaurants, stores or whatever you need.  The staff (Josh) was friendly, welcoming, and helpful.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r582410430-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
@@ -201,18 +483,15 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded 2 days ago</t>
-  </si>
-  <si>
-    <t>Responded 2 days ago</t>
+    <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
   </si>
   <si>
     <t>Great new accommodation in Waxahachie. I have stayed here twice since the hotel opened and will return. The staff is friendly and helpful, breakfast was good with a wide variety of hot and cold choices. I did appreciate the non-fat Greek yogurt.  The bed was very comfortable and had a good wifi signal   The ability to watch streaming TV is great.More</t>
   </si>
   <si>
-    <t>Annemarie E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r579417563-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -228,21 +507,15 @@
     <t>This hotel was perfectly located for the race. It took about 40 minutes from either DFW or DAL airports driving. The offer a decent breakfast buffet which makes the start to the day perfect for the runner. Very hospitable. Rooms were updated and great! Will be back next year!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Erin J, General Manager at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Erin J, General Manager at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
   </si>
   <si>
     <t>This hotel was perfectly located for the race. It took about 40 minutes from either DFW or DAL airports driving. The offer a decent breakfast buffet which makes the start to the day perfect for the runner. Very hospitable. Rooms were updated and great! Will be back next year!More</t>
   </si>
   <si>
-    <t>R2Ro581</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r573591410-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -261,9 +534,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>LaBradford S, Director of Sales at Fairfield Inn &amp; Suites Dallas Waxahachie, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -273,9 +543,6 @@
     <t>My stay was amazing! Rooms were clean and cleaned daily, full bf was great, and the staff were super caring and helpful! I recommend staying here to any of my friends and family! I am planning on returning soon!More</t>
   </si>
   <si>
-    <t>Mark A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r567841531-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -303,9 +570,6 @@
     <t>Yes the rooms are nice.... no restaurant, no bar. The large bin gets emptied at 04:30 in the morning. How disrespectful to the guests. We had a 5 hour drive starting at 07:00 after driving 5 hours the day before and the early wake up didn’t go down well.More</t>
   </si>
   <si>
-    <t>everview1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r558877804-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -333,9 +597,6 @@
     <t>The hotel has a vibrant modern decor, which is very pleasant.  We experienced nothing but friendly and efficient service by the staff. The breakfast offered a good variety, including the ability to make fresh waffles.  We would not hesitate to stay here again.More</t>
   </si>
   <si>
-    <t>Johnny T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r543694281-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -357,9 +618,6 @@
     <t>Super New and Nice Hotel and it appears that the staff works hard to keep it that way.  Very clean and bright. The exterior lighting make you feel safe. The interior decor is bright and uplifting. Gym area, Pool, very good breakfast is included. The rooms are comfortable, quiet, and had plenty of space and storage. A little trick to find the entrance but conveniently located just away from the traffic but with easy access to many restaurants, shopping, entertainment.  Close to SAGU and football stadium. I will make the extra effort to stay here every time I am in Waxahachie.More</t>
   </si>
   <si>
-    <t>Jodie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r541634335-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -378,9 +636,6 @@
     <t>This is one of the newer Fairfields, open concept, clean breakfast area, great assortment of food and drinks, family friendly, spacious room, clean bathrooms, plenty of towels, interesting wall treatment behind beds, and comfy bed.More</t>
   </si>
   <si>
-    <t>Randall h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r531843899-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -399,15 +654,9 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Rooms were very nice.Bed were very comfortable. Suites have 2 flat screen TV.  Breakfast was very nice and fresh . I definitely will stay here again. Staff was very helpful. Easy access to the highway. Overall very pleased with my stay.More</t>
   </si>
   <si>
-    <t>katherinekelli</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r531424503-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -427,9 +676,6 @@
   </si>
   <si>
     <t>Everything went very smoothly on this stay. We had to change rooms after our first night (needed a second bed to accommodate a new arrival) and the transition was easy and quick. The room was ready well before the standard check in time, so there was no gap between being able to leave one room and enter the other. Everyone we spoke to at the front desk was friendly and helpful. The only small issue we had was the shower was a bit tricky in our first room, hard to figure out hot/cold and had to be just in the right spot to get hot water. In the second room, it worked perfectly.More</t>
-  </si>
-  <si>
-    <t>lizbyrd0324</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r527925321-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
@@ -454,9 +700,6 @@
 Go up to my room and it smells over perfumed by room freshener. I get over to the sheets and they have hair strands on them and look quite wrinkled. I pull the sheets back and I'm instantly engulfed by the smell of sweat. Like same status as I just worked out for an hour and then got into bed dripping wet. It's NASTY. I call back down and ask to be switched. She tells me she is swamped and that the hotel is booked and she can't do anything for me. I told her there is no way these sheets were changed. She agrees that might be the case "but policy states they should be clean." I said regardless of policy no one changed these sheets. She brings me...Stay away from this property. The front desk staff is rude, unhelpful and below average in all aspects. During check in the girl who checked me in said "one moment I'm finishing something" and goes on to take 3-4 minutes before addressing me. I think it is very rude to let the customer stand for that amount of time. I purchased a bottled soda 30 min later and asked for the bottle opener. Another woman with short dark hair and glasses very snarkily said "that is definitely a twist off" and laughs that I'm the idiot. I try again and it's indeed NOT a twist off. Hurt my hand trying. Go up to my room and it smells over perfumed by room freshener. I get over to the sheets and they have hair strands on them and look quite wrinkled. I pull the sheets back and I'm instantly engulfed by the smell of sweat. Like same status as I just worked out for an hour and then got into bed dripping wet. It's NASTY. I call back down and ask to be switched. She tells me she is swamped and that the hotel is booked and she can't do anything for me. I told her there is no way these sheets were changed. She agrees that might be the case "but policy states they should be clean." I said regardless of policy no one changed these sheets. She brings me up folded sheets. I'm like are you expecting that I change the bed? Where is house keeping? She said no one is here except for me so if you want clean sheets you'll have to do it yourself. Is this what I should expect from Marriott? I am Diamond with Hilton for a reason, I suppose. I'm currently working on an elite challenge with Marriott but I'm thinking based on the rooms I've seen during my challenge that I have zero reason to rule out my beloved Hilton. Marriott sounded sorry about the experience but only made it up to me with 10,000 points. Seems a bit low for the night I had at this property. Such a bummer! More</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r526345567-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -475,9 +718,6 @@
     <t>It all goes back to guest etiquette I really can't figure out why people act a fool when they stay at a hotel and stomp around on Floors yell scream and carry on like idiots which the hotel staff had a really hard time getting ahold of up until the police showed up This truly is a beautiful hotel and clean breakfast was beautiful staff was very pleasant and I will probably stay there again at some point but after having no sleep from 12:30 on and had to be at work at 7 a.m. it made for a very rough stay. More</t>
   </si>
   <si>
-    <t>58Michele59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r503509251-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -499,9 +739,6 @@
     <t>This hotel has only been open a week. Check in staff and ladies in breakfast area very friendly &amp;  treated us like they were glad we were there. Modern &amp; clean. Comfortable bed. Visit Waxahachie often &amp; this will be our new go to hotel.More</t>
   </si>
   <si>
-    <t>denniscali59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r502654985-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -518,9 +755,6 @@
   </si>
   <si>
     <t>Everything about staying at this hotel was positive. Easy check-in. Friendly staff. Spic-n-span clean. Brand new. Spacious. Bright colors. Ample breakfast. Everything you could want in a hotel at a very reasonable price!More</t>
-  </si>
-  <si>
-    <t>Ajones911</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d10199105-r499788344-Fairfield_Inn_Suites_Dallas_Waxahachie-Waxahachie_Texas.html</t>
@@ -1043,311 +1277,283 @@
       <c r="A2" t="n">
         <v>65342</v>
       </c>
-      <c r="B2" t="n">
-        <v>14877</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65342</v>
       </c>
-      <c r="B3" t="n">
-        <v>136884</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65342</v>
       </c>
-      <c r="B4" t="n">
-        <v>50468</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65342</v>
       </c>
-      <c r="B5" t="n">
-        <v>136885</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65342</v>
       </c>
-      <c r="B6" t="n">
-        <v>3949</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1358,61 +1564,53 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>92</v>
-      </c>
-      <c r="X6" t="s">
-        <v>93</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65342</v>
       </c>
-      <c r="B7" t="n">
-        <v>136886</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1423,341 +1621,289 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>103</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65342</v>
       </c>
-      <c r="B8" t="n">
-        <v>136887</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65342</v>
       </c>
-      <c r="B9" t="n">
-        <v>136888</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65342</v>
       </c>
-      <c r="B10" t="n">
-        <v>136889</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65342</v>
       </c>
-      <c r="B11" t="n">
-        <v>136890</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65342</v>
       </c>
-      <c r="B12" t="n">
-        <v>136891</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1769,60 +1915,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="X12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65342</v>
       </c>
-      <c r="B13" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1833,219 +1975,1085 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>102</v>
-      </c>
-      <c r="X13" t="s">
-        <v>103</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65342</v>
       </c>
-      <c r="B14" t="n">
-        <v>136892</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="X14" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65342</v>
       </c>
-      <c r="B15" t="n">
-        <v>136893</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="X15" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65342</v>
       </c>
-      <c r="B16" t="n">
-        <v>136894</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="X16" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>188</v>
+      </c>
+      <c r="X23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>188</v>
+      </c>
+      <c r="X24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>188</v>
+      </c>
+      <c r="X25" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>188</v>
+      </c>
+      <c r="X26" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>188</v>
+      </c>
+      <c r="X27" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>188</v>
+      </c>
+      <c r="X28" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>188</v>
+      </c>
+      <c r="X29" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65342</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>188</v>
+      </c>
+      <c r="X30" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
